--- a/SPPSApi/Doc/Template/FS1207_Sub1_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1207_Sub1_Export.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="80000"/>
 </workbook>
 </file>
 
@@ -54,11 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本月CO数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月CO数</t>
+    <t>上月CO数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月CO数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,14 +449,16 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.59765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" customWidth="1"/>
-    <col min="4" max="9" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -482,10 +484,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS1207_Sub1_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1207_Sub1_Export.xlsx
@@ -448,13 +448,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" customWidth="1"/>
     <col min="4" max="7" width="10.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.69921875" style="5" customWidth="1"/>
